--- a/biology/Botanique/Archontophoenix/Archontophoenix.xlsx
+++ b/biology/Botanique/Archontophoenix/Archontophoenix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archontophoenix est un genre de plantes appartenant à la famille des palmiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les stipes sont solitaires, minces, lisses, et de grande taille (parfois 20 m). Les feuilles en tombant laissent des cicatrices qui forment des anneaux circulaires disposés régulièrement le long du tronc.
 Les feuilles pennées et vert foncé. Elles sont arquées et composées de pétioles courts et inermes.
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Archontophoenicinae [1]
+Sous-tribu des Archontophoenicinae 
 Le genre Archontophoenix partage sa sous-tribu avec quatre autres genres : 
 Actinorhytis, Actinokentia, Chambeyronia, Kentiopsis.
 </t>
@@ -579,7 +595,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre poussent en Australie, sur la côte Est, du Queensland au Sud-Est du NSW, jusqu'à 800 mètres d'altitude, en climat tropical humide, ou subtropical. Elles sont souvent cultivées en tant que plantes ornementales, en dehors de leur lieu d'origine. On rencontre fréquemment le genre dans des terrains très humides (marais) et régulièrement inondés. Il pousse alors dans des forêts d'Eucalyptus.
 </t>
@@ -610,7 +628,9 @@
           <t>Utilisation et culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est souvent cultivé pour sa valeur ornementale. L'espèce Archontophoenix cunninghamiana présente une bonne rusticité, de l'ordre de - 6 °C. Les aborigènes consommaient son cœur et utilisaient certaines parties de l'arbre pour transporter des aliments.
 </t>
@@ -641,7 +661,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Archontophoenix alexandrae, H.Wendl. &amp; Drude, Linnaea 39: 212 (1875).
 Archontophoenix cunninghamiana (H.Wendl.) H.Wendl. &amp; Drude, Linnaea 39: 214 (1875).
@@ -676,7 +698,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Archontophoenix myolensis est une espèce menacée selon la Liste rouge de l'UICN, classée Vulnérable, (VU C2a).
 </t>
